--- a/Shading Trees/my_graphs/impact_1.xlsx
+++ b/Shading Trees/my_graphs/impact_1.xlsx
@@ -519,70 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>4134.522185728885</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="C2">
-        <v>5642.492198294029</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="D2">
-        <v>184.5891532280075</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="E2">
-        <v>3.534659058204852</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="F2">
-        <v>339.4534238574961</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="G2">
-        <v>6.249668782013032</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="H2">
-        <v>15.49350752494956</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="I2">
-        <v>0.00961161613031436</v>
+        <v>1.404879185429309E-06</v>
       </c>
       <c r="J2">
-        <v>228.557243231684</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="K2">
-        <v>662.5370965441689</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="L2">
-        <v>388.3219460267574</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M2">
-        <v>30.53577131731436</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="N2">
-        <v>377.8871675510891</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="O2">
-        <v>442.1361596963834</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P2">
-        <v>0.7327475236880135</v>
+        <v>0.6107772338836177</v>
       </c>
       <c r="Q2">
-        <v>1.364726549967539</v>
+        <v>1.637258143433925</v>
       </c>
       <c r="R2">
-        <v>-3688.248405501945</v>
+        <v>-0.5448288190818857</v>
       </c>
       <c r="S2">
-        <v>-6782.818808367909</v>
+        <v>-0.9958833063301427</v>
       </c>
       <c r="T2">
-        <v>-309.860538882861</v>
+        <v>-0.04581206010607275</v>
       </c>
       <c r="U2">
-        <v>-7115.607191325398</v>
+        <v>-1.019551726290956</v>
       </c>
       <c r="V2">
-        <v>-3908.607768089511</v>
+        <v>-0.5170527440495789</v>
       </c>
       <c r="W2">
-        <v>-7735.903149217833</v>
+        <v>-1.043237413046882</v>
       </c>
     </row>
   </sheetData>

--- a/Shading Trees/my_graphs/impact_1.xlsx
+++ b/Shading Trees/my_graphs/impact_1.xlsx
@@ -16,52 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
+    <t>Investment</t>
+  </si>
+  <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>Investment</t>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
   </si>
   <si>
     <t>Water Saving</t>
   </si>
   <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
     <t>Water Investment</t>
   </si>
   <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
     <t>Emission Investment</t>
   </si>
   <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
     <t>Land Investment</t>
   </si>
   <si>
-    <t>Workforce Saving</t>
+    <t>Import Investment</t>
   </si>
   <si>
     <t>Workforce Investment</t>
   </si>
   <si>
-    <t>Capital Saving</t>
-  </si>
-  <si>
     <t>Capital Investment</t>
-  </si>
-  <si>
-    <t>Import Saving</t>
-  </si>
-  <si>
-    <t>Import Investment</t>
-  </si>
-  <si>
-    <t>PROI</t>
-  </si>
-  <si>
-    <t>PPBT</t>
   </si>
   <si>
     <t>Water Total Impact</t>
@@ -519,70 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.6107773305848241</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C2">
-        <v>1.000000158324838</v>
+        <v>0.9354393007233739</v>
       </c>
       <c r="D2">
-        <v>0.02726734952011611</v>
+        <v>0.9354391526201219</v>
       </c>
       <c r="E2">
+        <v>1.06901661877103</v>
+      </c>
+      <c r="F2">
+        <v>0.04106397050782107</v>
+      </c>
+      <c r="G2">
+        <v>0.05008577914486523</v>
+      </c>
+      <c r="H2">
+        <v>0.003466384087914776</v>
+      </c>
+      <c r="I2">
+        <v>0.08160151727497578</v>
+      </c>
+      <c r="J2">
+        <v>0.07793689612299204</v>
+      </c>
+      <c r="K2">
+        <v>0.06345285149291158</v>
+      </c>
+      <c r="L2">
         <v>0.0005181713204365224</v>
       </c>
-      <c r="F2">
-        <v>0.04984009368308762</v>
-      </c>
-      <c r="G2">
+      <c r="M2">
         <v>0.0009185673316096654</v>
       </c>
-      <c r="H2">
-        <v>0.002290673249262909</v>
-      </c>
-      <c r="I2">
-        <v>1.404879185429309E-06</v>
-      </c>
-      <c r="J2">
-        <v>0.03071292489767075</v>
-      </c>
-      <c r="K2">
-        <v>0.09720575390383601</v>
-      </c>
-      <c r="L2">
-        <v>0.05236644484102726</v>
-      </c>
-      <c r="M2">
-        <v>0.00409148377366364</v>
-      </c>
       <c r="N2">
-        <v>0.05422328365966678</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O2">
         <v>0.06491394690237939</v>
       </c>
       <c r="P2">
-        <v>0.6107772338836177</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q2">
-        <v>1.637258143433925</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R2">
-        <v>-0.5448288190818857</v>
+        <v>-0.8207612388359848</v>
       </c>
       <c r="S2">
-        <v>-0.9958833063301427</v>
+        <v>-1.000797015565695</v>
       </c>
       <c r="T2">
-        <v>-0.04581206010607275</v>
+        <v>-0.06932627687911008</v>
       </c>
       <c r="U2">
-        <v>-1.019551726290956</v>
+        <v>-1.567116398597136</v>
       </c>
       <c r="V2">
-        <v>-0.5170527440495789</v>
+        <v>-1.171851275954396</v>
       </c>
       <c r="W2">
-        <v>-1.043237413046882</v>
+        <v>-1.554646438686177</v>
       </c>
     </row>
   </sheetData>
